--- a/data/trans_orig/P35-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P35-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>119801</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>100828</v>
+        <v>101082</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>140207</v>
+        <v>141110</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1811424763741356</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1524554482413852</v>
+        <v>0.1528383556030116</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2119963546540408</v>
+        <v>0.2133625695566764</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>149</v>
@@ -765,19 +765,19 @@
         <v>146479</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>126938</v>
+        <v>126802</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>169218</v>
+        <v>168104</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2238201304254475</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1939612464708397</v>
+        <v>0.1937541426862447</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2585661117038985</v>
+        <v>0.2568634680708836</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>271</v>
@@ -786,19 +786,19 @@
         <v>266280</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>237508</v>
+        <v>237555</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>294836</v>
+        <v>293511</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2023691729466338</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1805027949646858</v>
+        <v>0.1805385222541878</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2240714757060102</v>
+        <v>0.2230645394170963</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>541562</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>521156</v>
+        <v>520253</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>560535</v>
+        <v>560281</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8188575236258644</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7880036453459591</v>
+        <v>0.7866374304433236</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8475445517586148</v>
+        <v>0.8471616443969885</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>514</v>
@@ -836,19 +836,19 @@
         <v>507970</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>485231</v>
+        <v>486345</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>527511</v>
+        <v>527647</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7761798695745525</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7414338882961017</v>
+        <v>0.7431365319291167</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8060387535291604</v>
+        <v>0.8062458573137553</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1043</v>
@@ -857,19 +857,19 @@
         <v>1049532</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1020976</v>
+        <v>1022301</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1078304</v>
+        <v>1078257</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7976308270533662</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7759285242939898</v>
+        <v>0.7769354605829037</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8194972050353149</v>
+        <v>0.819461477745812</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>146236</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>124144</v>
+        <v>125280</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>169845</v>
+        <v>169236</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1578042761455296</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1339645340869834</v>
+        <v>0.1351901628900168</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1832812679644234</v>
+        <v>0.1826233431124596</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>199</v>
@@ -982,19 +982,19 @@
         <v>215490</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>189276</v>
+        <v>190124</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>242269</v>
+        <v>242683</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.233167032218155</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2048025957563979</v>
+        <v>0.2057198964933691</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2621422108048778</v>
+        <v>0.262590652705269</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>341</v>
@@ -1003,19 +1003,19 @@
         <v>361727</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>327128</v>
+        <v>330344</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>399106</v>
+        <v>400809</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1954346856410615</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1767415369204601</v>
+        <v>0.1784793764148263</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.21563004585197</v>
+        <v>0.216550491892488</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>780457</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>756848</v>
+        <v>757457</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>802549</v>
+        <v>801413</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8421957238544704</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8167187320355767</v>
+        <v>0.8173766568875406</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8660354659130169</v>
+        <v>0.8648098371099833</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>668</v>
@@ -1053,19 +1053,19 @@
         <v>708699</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>681920</v>
+        <v>681506</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>734913</v>
+        <v>734065</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.766832967781845</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7378577891951223</v>
+        <v>0.737409347294731</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7951974042436024</v>
+        <v>0.794280103506631</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1391</v>
@@ -1074,19 +1074,19 @@
         <v>1489155</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1451776</v>
+        <v>1450073</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1523754</v>
+        <v>1520538</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8045653143589385</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7843699541480298</v>
+        <v>0.7834495081075118</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8232584630795399</v>
+        <v>0.8215206235851736</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>127794</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>108552</v>
+        <v>110053</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>150281</v>
+        <v>149872</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2020116427403544</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1715941988908901</v>
+        <v>0.1739661349621978</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2375569811007373</v>
+        <v>0.2369102539459329</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>167</v>
@@ -1199,19 +1199,19 @@
         <v>161985</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>140523</v>
+        <v>138866</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>183854</v>
+        <v>183726</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2553055038898922</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2214794191092278</v>
+        <v>0.2188669115688394</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2897735672660548</v>
+        <v>0.2895711182699147</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>290</v>
@@ -1220,19 +1220,19 @@
         <v>289780</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>261934</v>
+        <v>261283</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>320477</v>
+        <v>319853</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2286978326357408</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.20672179969996</v>
+        <v>0.206207579373193</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2529245443803234</v>
+        <v>0.2524319194002578</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>504815</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>482328</v>
+        <v>482737</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>524057</v>
+        <v>522556</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7979883572596457</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7624430188992628</v>
+        <v>0.7630897460540672</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8284058011091099</v>
+        <v>0.8260338650378022</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>479</v>
@@ -1270,19 +1270,19 @@
         <v>472491</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>450622</v>
+        <v>450750</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>493953</v>
+        <v>495610</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7446944961101079</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7102264327339451</v>
+        <v>0.7104288817300852</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7785205808907721</v>
+        <v>0.7811330884311606</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>952</v>
@@ -1291,19 +1291,19 @@
         <v>977305</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>946608</v>
+        <v>947232</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1005151</v>
+        <v>1005802</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7713021673642592</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7470754556196766</v>
+        <v>0.7475680805997416</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.79327820030004</v>
+        <v>0.7937924206268069</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>153490</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>133298</v>
+        <v>132821</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>175158</v>
+        <v>175505</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1693105744150458</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1470373803907028</v>
+        <v>0.1465112087652545</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1932119323318358</v>
+        <v>0.1935945773994884</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>161</v>
@@ -1416,19 +1416,19 @@
         <v>167652</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>144795</v>
+        <v>145824</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>190942</v>
+        <v>193575</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1685077143349597</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1455345773164615</v>
+        <v>0.1465686041587144</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1919170339082713</v>
+        <v>0.1945637524184317</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>329</v>
@@ -1437,19 +1437,19 @@
         <v>321141</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>291785</v>
+        <v>285899</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>351896</v>
+        <v>350090</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1688904899647762</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1534516448519891</v>
+        <v>0.1503564605140807</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1850643942722629</v>
+        <v>0.1841148369320202</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>753068</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>731400</v>
+        <v>731053</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>773260</v>
+        <v>773737</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8306894255849542</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.806788067668164</v>
+        <v>0.806405422600512</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8529626196092972</v>
+        <v>0.8534887912347455</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>793</v>
@@ -1487,19 +1487,19 @@
         <v>827267</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>803977</v>
+        <v>801344</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>850124</v>
+        <v>849095</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8314922856650403</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8080829660917289</v>
+        <v>0.8054362475815688</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8544654226835384</v>
+        <v>0.8534313958412857</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1581</v>
@@ -1508,19 +1508,19 @@
         <v>1580336</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1549581</v>
+        <v>1551387</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1609692</v>
+        <v>1615578</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8311095100352238</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.814935605727737</v>
+        <v>0.8158851630679795</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8465483551480109</v>
+        <v>0.8496435394859193</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>547321</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>506232</v>
+        <v>503551</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>587236</v>
+        <v>591230</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1750183142575368</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1618790034667663</v>
+        <v>0.1610217958874227</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1877820828488352</v>
+        <v>0.1890591628850223</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>676</v>
@@ -1633,19 +1633,19 @@
         <v>691606</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>645268</v>
+        <v>645978</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>742797</v>
+        <v>740117</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2155856923659197</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2011412083511215</v>
+        <v>0.2013625852219477</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2315426733103312</v>
+        <v>0.2307072994517462</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1231</v>
@@ -1654,19 +1654,19 @@
         <v>1238927</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1177488</v>
+        <v>1180088</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1299957</v>
+        <v>1301900</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1955607352681062</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1858626629747316</v>
+        <v>0.1862731423471774</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2051940634276905</v>
+        <v>0.2055007825530351</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2579902</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2539987</v>
+        <v>2535993</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2620991</v>
+        <v>2623672</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8249816857424632</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8122179171511648</v>
+        <v>0.8109408371149779</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8381209965332337</v>
+        <v>0.8389782041125773</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2454</v>
@@ -1704,19 +1704,19 @@
         <v>2516427</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2465236</v>
+        <v>2467916</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2562765</v>
+        <v>2562055</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7844143076340804</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7684573266896688</v>
+        <v>0.7692927005482542</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7988587916488785</v>
+        <v>0.7986374147780524</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4967</v>
@@ -1725,19 +1725,19 @@
         <v>5096329</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5035299</v>
+        <v>5033356</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5157768</v>
+        <v>5155168</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8044392647318938</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7948059365723095</v>
+        <v>0.7944992174469651</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8141373370252685</v>
+        <v>0.8137268576528226</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>168368</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>147259</v>
+        <v>145943</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>192611</v>
+        <v>192439</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2429078709133514</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2124523119408845</v>
+        <v>0.2105537721889384</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2778827326240389</v>
+        <v>0.2776352712739636</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>201</v>
@@ -2090,19 +2090,19 @@
         <v>215890</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>191555</v>
+        <v>192572</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>242849</v>
+        <v>240191</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3196972529118293</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.283661116708757</v>
+        <v>0.2851672969542179</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3596184720276139</v>
+        <v>0.3556826190172574</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>363</v>
@@ -2111,19 +2111,19 @@
         <v>384259</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>349675</v>
+        <v>351137</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>417174</v>
+        <v>418577</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.280801982749379</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2555291707118624</v>
+        <v>0.2565977986152327</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3048554807171284</v>
+        <v>0.3058805506660563</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>524769</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>500526</v>
+        <v>500698</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>545878</v>
+        <v>547194</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7570921290866486</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7221172673759609</v>
+        <v>0.7223647287260364</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7875476880591155</v>
+        <v>0.7894462278110616</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>428</v>
@@ -2161,19 +2161,19 @@
         <v>459406</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>432447</v>
+        <v>435105</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>483741</v>
+        <v>482724</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6803027470881706</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6403815279723862</v>
+        <v>0.6443173809827428</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7163388832912433</v>
+        <v>0.7148327030457822</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>930</v>
@@ -2182,19 +2182,19 @@
         <v>984174</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>951259</v>
+        <v>949856</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1018758</v>
+        <v>1017296</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.719198017250621</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6951445192828718</v>
+        <v>0.6941194493339438</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7444708292881376</v>
+        <v>0.7434022013847679</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>258312</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>231541</v>
+        <v>231921</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>289136</v>
+        <v>288238</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2592388163217937</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2323718835354789</v>
+        <v>0.2327532874258117</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2901734739356364</v>
+        <v>0.2892726647404074</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>316</v>
@@ -2307,19 +2307,19 @@
         <v>351483</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>320814</v>
+        <v>319913</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>383847</v>
+        <v>383631</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3488535680979596</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3184141715447228</v>
+        <v>0.3175205347223609</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3809758659702537</v>
+        <v>0.3807611387951714</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>548</v>
@@ -2328,19 +2328,19 @@
         <v>609794</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>566453</v>
+        <v>565398</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>651091</v>
+        <v>652324</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.304294634243659</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2826669737855145</v>
+        <v>0.2821401542389274</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3249022190614956</v>
+        <v>0.3255174976605992</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>738112</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>707288</v>
+        <v>708186</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>764883</v>
+        <v>764503</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7407611836782062</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7098265260643637</v>
+        <v>0.710727335259593</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7676281164645211</v>
+        <v>0.7672467125741883</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>602</v>
@@ -2378,19 +2378,19 @@
         <v>656053</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>623689</v>
+        <v>623905</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>686722</v>
+        <v>687623</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6511464319020404</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6190241340297463</v>
+        <v>0.6192388612048286</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.681585828455277</v>
+        <v>0.6824794652776391</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1285</v>
@@ -2399,19 +2399,19 @@
         <v>1394166</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1352869</v>
+        <v>1351636</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1437507</v>
+        <v>1438562</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.695705365756341</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6750977809385041</v>
+        <v>0.6744825023394011</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7173330262144855</v>
+        <v>0.7178598457610725</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>196270</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>171095</v>
+        <v>170713</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>224871</v>
+        <v>223076</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2643707131493247</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2304607608420101</v>
+        <v>0.2299464271016305</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3028957521661196</v>
+        <v>0.3004783133948607</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>244</v>
@@ -2524,19 +2524,19 @@
         <v>267450</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>241278</v>
+        <v>240405</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>294834</v>
+        <v>295072</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3516627264566763</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3172499945249034</v>
+        <v>0.3161013303700539</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3876694988215299</v>
+        <v>0.3879814138016539</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>417</v>
@@ -2545,19 +2545,19 @@
         <v>463720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>424650</v>
+        <v>426488</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>500858</v>
+        <v>505044</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3085431550391803</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2825474120191234</v>
+        <v>0.2837704010305188</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3332540229976015</v>
+        <v>0.3360391933062538</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>546133</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>517532</v>
+        <v>519327</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>571308</v>
+        <v>571690</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7356292868506753</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.69710424783388</v>
+        <v>0.6995216866051394</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7695392391579898</v>
+        <v>0.7700535728983695</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>446</v>
@@ -2595,19 +2595,19 @@
         <v>493080</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>465696</v>
+        <v>465458</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>519252</v>
+        <v>520125</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6483372735433237</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6123305011784701</v>
+        <v>0.6120185861983461</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6827500054750968</v>
+        <v>0.6838986696299462</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>948</v>
@@ -2616,19 +2616,19 @@
         <v>1039213</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1002075</v>
+        <v>997889</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1078283</v>
+        <v>1076445</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6914568449608197</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6667459770023986</v>
+        <v>0.6639608066937458</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7174525879808766</v>
+        <v>0.7162295989694811</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>241084</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>216692</v>
+        <v>214311</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>269537</v>
+        <v>267841</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2691967087390478</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2419594343566347</v>
+        <v>0.2393015591340774</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3009674703838267</v>
+        <v>0.2990737062225642</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>330</v>
@@ -2741,19 +2741,19 @@
         <v>352565</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>322945</v>
+        <v>319956</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>382988</v>
+        <v>385254</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3495053388718025</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3201424839148704</v>
+        <v>0.3171793287248793</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3796646026479227</v>
+        <v>0.3819110543787034</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>552</v>
@@ -2762,19 +2762,19 @@
         <v>593649</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>554467</v>
+        <v>551132</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>636667</v>
+        <v>637516</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3117375908436853</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2911626499616061</v>
+        <v>0.2894113652942121</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3343272243259885</v>
+        <v>0.3347734173764272</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>654486</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>626033</v>
+        <v>627729</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>678878</v>
+        <v>681259</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7308032912609521</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6990325296161725</v>
+        <v>0.7009262937774356</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7580405656433651</v>
+        <v>0.7606984408659224</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>631</v>
@@ -2812,19 +2812,19 @@
         <v>656188</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>625765</v>
+        <v>623499</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>685808</v>
+        <v>688797</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6504946611281975</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6203353973520773</v>
+        <v>0.6180889456212966</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6798575160851296</v>
+        <v>0.6828206712751207</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1273</v>
@@ -2833,19 +2833,19 @@
         <v>1310673</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1267655</v>
+        <v>1266806</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1349855</v>
+        <v>1353190</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6882624091563146</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6656727756740115</v>
+        <v>0.6652265826235727</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7088373500383939</v>
+        <v>0.7105886347057878</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>864034</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>806652</v>
+        <v>813044</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>910997</v>
+        <v>917567</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2596620528507136</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2424174841535716</v>
+        <v>0.2443383346915504</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2737754299141041</v>
+        <v>0.2757498311356996</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1091</v>
@@ -2958,19 +2958,19 @@
         <v>1187387</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1135012</v>
+        <v>1133551</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1244801</v>
+        <v>1242301</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3439594035581164</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3287876526623422</v>
+        <v>0.3283642544564765</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3605908206756354</v>
+        <v>0.3598665922058754</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1880</v>
@@ -2979,19 +2979,19 @@
         <v>2051421</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1975601</v>
+        <v>1978287</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2132526</v>
+        <v>2136070</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3025852398427265</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2914017719481765</v>
+        <v>0.2917978565244086</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3145482193926855</v>
+        <v>0.3150708786514536</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2463500</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2416537</v>
+        <v>2409967</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2520882</v>
+        <v>2514490</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7403379471492864</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7262245700858959</v>
+        <v>0.7242501688643004</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7575825158464283</v>
+        <v>0.7556616653084496</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2107</v>
@@ -3029,19 +3029,19 @@
         <v>2264727</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2207313</v>
+        <v>2209813</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2317102</v>
+        <v>2318563</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6560405964418836</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6394091793243646</v>
+        <v>0.6401334077941245</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6712123473376578</v>
+        <v>0.6716357455435233</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4436</v>
@@ -3050,19 +3050,19 @@
         <v>4728227</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4647122</v>
+        <v>4643578</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4804047</v>
+        <v>4801361</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6974147601572734</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6854517806073144</v>
+        <v>0.6849291213485464</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7085982280518235</v>
+        <v>0.7082021434755917</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>145932</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>125853</v>
+        <v>124107</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>167393</v>
+        <v>167771</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2192702394907641</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1891005441296496</v>
+        <v>0.1864761837181672</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2515168022435293</v>
+        <v>0.2520836259525956</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>199</v>
@@ -3415,19 +3415,19 @@
         <v>204365</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>181889</v>
+        <v>180149</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>228832</v>
+        <v>229659</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3056847167380837</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2720656650968014</v>
+        <v>0.2694629957667394</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3422811919433458</v>
+        <v>0.3435181225970381</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>340</v>
@@ -3436,19 +3436,19 @@
         <v>350298</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>320584</v>
+        <v>320007</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>381953</v>
+        <v>386369</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2625750581371858</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2403024157933159</v>
+        <v>0.2398698386844755</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2863028043370539</v>
+        <v>0.2896134711772183</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>519604</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>498143</v>
+        <v>497765</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>539683</v>
+        <v>541429</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7807297605092359</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7484831977564707</v>
+        <v>0.7479163740474043</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8108994558703504</v>
+        <v>0.8135238162818328</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>463</v>
@@ -3486,19 +3486,19 @@
         <v>464184</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>439717</v>
+        <v>438890</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>486660</v>
+        <v>488400</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6943152832619163</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6577188080566544</v>
+        <v>0.6564818774029619</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7279343349031988</v>
+        <v>0.7305370042332604</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>965</v>
@@ -3507,19 +3507,19 @@
         <v>983788</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>952133</v>
+        <v>947717</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1013502</v>
+        <v>1014079</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7374249418628142</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.713697195662946</v>
+        <v>0.7103865288227816</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7596975842066839</v>
+        <v>0.7601301613155245</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>289731</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>260061</v>
+        <v>261048</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>319449</v>
+        <v>319958</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.286025859655421</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2567354775882778</v>
+        <v>0.257709427324333</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3153637315503268</v>
+        <v>0.3158657107445752</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>354</v>
@@ -3632,19 +3632,19 @@
         <v>385370</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>352689</v>
+        <v>356862</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>418586</v>
+        <v>418891</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3752534226451638</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3434299834964289</v>
+        <v>0.3474942515220848</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4075974272240237</v>
+        <v>0.4078948956251395</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>630</v>
@@ -3653,19 +3653,19 @@
         <v>675101</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>633731</v>
+        <v>631074</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>716734</v>
+        <v>719674</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3309459141918902</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3106657036929397</v>
+        <v>0.3093628872856052</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3513547701201613</v>
+        <v>0.3527962043299977</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>723224</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>693506</v>
+        <v>692997</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>752894</v>
+        <v>751907</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7139741403445791</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6846362684496732</v>
+        <v>0.6841342892554249</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7432645224117223</v>
+        <v>0.7422905726756671</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>608</v>
@@ -3703,19 +3703,19 @@
         <v>641589</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>608373</v>
+        <v>608068</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>674270</v>
+        <v>670097</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6247465773548362</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5924025727759763</v>
+        <v>0.5921051043748606</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6565700165035711</v>
+        <v>0.6525057484779152</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1274</v>
@@ -3724,19 +3724,19 @@
         <v>1364813</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1323180</v>
+        <v>1320240</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1406183</v>
+        <v>1408840</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6690540858081098</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6486452298798386</v>
+        <v>0.647203795670003</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6893342963070602</v>
+        <v>0.6906371127143949</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>244878</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>218907</v>
+        <v>220994</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>270991</v>
+        <v>273227</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3247064949216052</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2902685038591684</v>
+        <v>0.2930366990963208</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.359332050249018</v>
+        <v>0.3622972068044226</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>264</v>
@@ -3849,19 +3849,19 @@
         <v>288706</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>262958</v>
+        <v>258628</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>317252</v>
+        <v>315763</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3745313608764702</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3411290687725162</v>
+        <v>0.3355128939283217</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4115637117502317</v>
+        <v>0.4096323145862916</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>490</v>
@@ -3870,19 +3870,19 @@
         <v>533584</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>496653</v>
+        <v>496148</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>572993</v>
+        <v>570645</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3498916233615605</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3256746613150566</v>
+        <v>0.3253434480163489</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.375733592763045</v>
+        <v>0.3741937929352099</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>509274</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>483161</v>
+        <v>480925</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>535245</v>
+        <v>533158</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6752935050783948</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6406679497509823</v>
+        <v>0.6377027931955774</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7097314961408318</v>
+        <v>0.7069633009036793</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>459</v>
@@ -3920,19 +3920,19 @@
         <v>482139</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>453593</v>
+        <v>455082</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>507887</v>
+        <v>512217</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6254686391235299</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5884362882497683</v>
+        <v>0.5903676854137085</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6588709312274839</v>
+        <v>0.6644871060716786</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>925</v>
@@ -3941,19 +3941,19 @@
         <v>991414</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>952005</v>
+        <v>954353</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1028345</v>
+        <v>1028850</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6501083766384395</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.624266407236955</v>
+        <v>0.6258062070647901</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6743253386849434</v>
+        <v>0.6746565519836512</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>250915</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>223256</v>
+        <v>225317</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>279946</v>
+        <v>281402</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2766800010162611</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2461816152766856</v>
+        <v>0.2484539307765512</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3086918092416206</v>
+        <v>0.3102980914635413</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>306</v>
@@ -4066,19 +4066,19 @@
         <v>339471</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>305461</v>
+        <v>306834</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>368440</v>
+        <v>370049</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.329712492658927</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.296680743078065</v>
+        <v>0.2980136998971694</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3578489394408752</v>
+        <v>0.3594115644538606</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>550</v>
@@ -4087,19 +4087,19 @@
         <v>590385</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>547397</v>
+        <v>549122</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>627881</v>
+        <v>632329</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.304876646312612</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2826775954033405</v>
+        <v>0.2835682981578816</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3242397157532049</v>
+        <v>0.3265366316511874</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>655962</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>626931</v>
+        <v>625475</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>683621</v>
+        <v>681560</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7233199989837389</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6913081907583793</v>
+        <v>0.6897019085364572</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7538183847233142</v>
+        <v>0.7515460692234487</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>641</v>
@@ -4137,19 +4137,19 @@
         <v>690125</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>661156</v>
+        <v>659547</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>724135</v>
+        <v>722762</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.670287507341073</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6421510605591247</v>
+        <v>0.6405884355461394</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.703319256921935</v>
+        <v>0.7019863001028307</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1299</v>
@@ -4158,19 +4158,19 @@
         <v>1346087</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1308591</v>
+        <v>1304143</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1389075</v>
+        <v>1387350</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.695123353687388</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6757602842467951</v>
+        <v>0.673463368348813</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7173224045966595</v>
+        <v>0.7164317018421189</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>931456</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>876226</v>
+        <v>877214</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>985712</v>
+        <v>982629</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2789192279716258</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2623808863196402</v>
+        <v>0.2626765288600764</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2951656380351427</v>
+        <v>0.2942425485724458</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1123</v>
@@ -4283,19 +4283,19 @@
         <v>1217911</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1160815</v>
+        <v>1161170</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1279869</v>
+        <v>1274896</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3483779014645863</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3320458049702809</v>
+        <v>0.3321472413755874</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3661004872815178</v>
+        <v>0.3646780896124355</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2010</v>
@@ -4304,19 +4304,19 @@
         <v>2149368</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2069824</v>
+        <v>2069641</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2229880</v>
+        <v>2220059</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3144433408234503</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3028065002492183</v>
+        <v>0.3027796751298966</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3262220017089578</v>
+        <v>0.3247852064127705</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2408064</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2353808</v>
+        <v>2356891</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2463294</v>
+        <v>2462306</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7210807720283742</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7048343619648573</v>
+        <v>0.7057574514275543</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7376191136803598</v>
+        <v>0.7373234711399236</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2171</v>
@@ -4354,19 +4354,19 @@
         <v>2278038</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2216080</v>
+        <v>2221053</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2335134</v>
+        <v>2334779</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6516220985354136</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6338995127184822</v>
+        <v>0.6353219103875645</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6679541950297192</v>
+        <v>0.6678527586244126</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4463</v>
@@ -4375,19 +4375,19 @@
         <v>4686101</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4605589</v>
+        <v>4615410</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4765645</v>
+        <v>4765828</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6855566591765496</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6737779982910422</v>
+        <v>0.6752147935872298</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6971934997507818</v>
+        <v>0.697220324870104</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>223021</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>197891</v>
+        <v>196773</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>249490</v>
+        <v>249062</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3228861925102199</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2865043759360366</v>
+        <v>0.2848850869065456</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3612082528949244</v>
+        <v>0.3605884677985553</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>442</v>
@@ -4740,19 +4740,19 @@
         <v>251905</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>232130</v>
+        <v>230874</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>274606</v>
+        <v>274824</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.344155673927473</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3171386784273274</v>
+        <v>0.3154222296011083</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3751698810030087</v>
+        <v>0.3754671221593631</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>705</v>
@@ -4761,19 +4761,19 @@
         <v>474926</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>443642</v>
+        <v>441985</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>505092</v>
+        <v>508400</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3338292259755787</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3118397824920469</v>
+        <v>0.3106748126092975</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3550329883253495</v>
+        <v>0.3573581716230673</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>467689</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>441220</v>
+        <v>441648</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>492819</v>
+        <v>493937</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.67711380748978</v>
+        <v>0.6771138074897801</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6387917471050756</v>
+        <v>0.6394115322014446</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7134956240639624</v>
+        <v>0.7151149130934544</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>794</v>
@@ -4811,19 +4811,19 @@
         <v>480046</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>457345</v>
+        <v>457127</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>499821</v>
+        <v>501077</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6558443260725269</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6248301189969914</v>
+        <v>0.6245328778406369</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6828613215726725</v>
+        <v>0.6845777703988917</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1261</v>
@@ -4832,19 +4832,19 @@
         <v>947735</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>917569</v>
+        <v>914261</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>979019</v>
+        <v>980676</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.666170774024421</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6449670116746504</v>
+        <v>0.6426418283769322</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6881602175079531</v>
+        <v>0.6893251873907025</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>367521</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>335236</v>
+        <v>335847</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>402144</v>
+        <v>402776</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3503811522500098</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3196019464159914</v>
+        <v>0.3201845577700408</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3833894069401304</v>
+        <v>0.3839920577716815</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>628</v>
@@ -4957,19 +4957,19 @@
         <v>437140</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>408623</v>
+        <v>411414</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>467346</v>
+        <v>467260</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4084555778952191</v>
+        <v>0.4084555778952192</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3818097533388555</v>
+        <v>0.3844181085315811</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.43667997372652</v>
+        <v>0.4365991885878663</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>989</v>
@@ -4978,19 +4978,19 @@
         <v>804661</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>762722</v>
+        <v>755172</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>850510</v>
+        <v>848151</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3797103400141735</v>
+        <v>0.3797103400141734</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3599198438466257</v>
+        <v>0.3563570274897797</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4013459927761432</v>
+        <v>0.4002328195235428</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>681396</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>646773</v>
+        <v>646141</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>713681</v>
+        <v>713070</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6496188477499902</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6166105930598695</v>
+        <v>0.6160079422283185</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6803980535840086</v>
+        <v>0.6798154422299593</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>887</v>
@@ -5028,19 +5028,19 @@
         <v>633086</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>602880</v>
+        <v>602966</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>661603</v>
+        <v>658812</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5915444221047809</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.56332002627348</v>
+        <v>0.5634008114121338</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6181902466611443</v>
+        <v>0.6155818914684188</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1490</v>
@@ -5049,19 +5049,19 @@
         <v>1314482</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1268633</v>
+        <v>1270992</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1356421</v>
+        <v>1363971</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6202896599858267</v>
+        <v>0.6202896599858266</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5986540072238571</v>
+        <v>0.5997671804764572</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6400801561533747</v>
+        <v>0.6436429725102201</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>266300</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>238531</v>
+        <v>236910</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>297321</v>
+        <v>296066</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3316010269083944</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2970231980902741</v>
+        <v>0.2950044913732711</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3702297074784487</v>
+        <v>0.3686661376151605</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>387</v>
@@ -5174,19 +5174,19 @@
         <v>294577</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>267282</v>
+        <v>271254</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>320185</v>
+        <v>318290</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3629866277931375</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3293536297901118</v>
+        <v>0.3342480944366703</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3945420684446277</v>
+        <v>0.3922073746126398</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>633</v>
@@ -5195,19 +5195,19 @@
         <v>560877</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>521815</v>
+        <v>523495</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>601205</v>
+        <v>604704</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3473760835094935</v>
+        <v>0.3473760835094934</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3231834501548025</v>
+        <v>0.3242237281837531</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3723531128425773</v>
+        <v>0.3745203677006376</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>536773</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>505752</v>
+        <v>507007</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>564542</v>
+        <v>566163</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6683989730916056</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6297702925215514</v>
+        <v>0.6313338623848396</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.702976801909726</v>
+        <v>0.7049955086267289</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>659</v>
@@ -5245,19 +5245,19 @@
         <v>516959</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>491351</v>
+        <v>493246</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>544254</v>
+        <v>540282</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6370133722068625</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6054579315553723</v>
+        <v>0.6077926253873603</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6706463702098882</v>
+        <v>0.6657519055633296</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1089</v>
@@ -5266,19 +5266,19 @@
         <v>1053732</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1013404</v>
+        <v>1009905</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1092794</v>
+        <v>1091114</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6526239164905063</v>
+        <v>0.6526239164905064</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6276468871574228</v>
+        <v>0.625479632299362</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6768165498451976</v>
+        <v>0.675776271816247</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>357729</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>326636</v>
+        <v>328622</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>387972</v>
+        <v>389801</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3613199357963142</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.329914408851081</v>
+        <v>0.3319204999281719</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3918662034265364</v>
+        <v>0.3937141425017458</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>617</v>
@@ -5391,19 +5391,19 @@
         <v>429489</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>402814</v>
+        <v>401833</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>459210</v>
+        <v>461958</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3845129267221616</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3606306176284791</v>
+        <v>0.3597530792525475</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4111208074038696</v>
+        <v>0.4135816577206778</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1033</v>
@@ -5412,19 +5412,19 @@
         <v>787219</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>748840</v>
+        <v>748239</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>829744</v>
+        <v>830233</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3736148928546613</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.355400284258129</v>
+        <v>0.3551151917198406</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3937976687159308</v>
+        <v>0.3940294304150009</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>632333</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>602090</v>
+        <v>600261</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>663426</v>
+        <v>661440</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6386800642036858</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6081337965734636</v>
+        <v>0.606285857498254</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6700855911489191</v>
+        <v>0.668079500071828</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>942</v>
@@ -5462,19 +5462,19 @@
         <v>687481</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>657760</v>
+        <v>655012</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>714156</v>
+        <v>715137</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6154870732778384</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5888791925961309</v>
+        <v>0.5864183422793224</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6393693823715212</v>
+        <v>0.6402469207474524</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1532</v>
@@ -5483,19 +5483,19 @@
         <v>1319813</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1277288</v>
+        <v>1276799</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1358192</v>
+        <v>1358793</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6263851071453388</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6062023312840692</v>
+        <v>0.605970569584999</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6445997157418709</v>
+        <v>0.6448848082801588</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1214570</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1153896</v>
+        <v>1151187</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1274297</v>
+        <v>1277759</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3438019468890993</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3266271626839257</v>
+        <v>0.3258603084516956</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3607083302128785</v>
+        <v>0.361688283628055</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2074</v>
@@ -5608,19 +5608,19 @@
         <v>1413111</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1358877</v>
+        <v>1361870</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1470371</v>
+        <v>1466189</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3787807638468187</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3642433778577643</v>
+        <v>0.3650458338340339</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3941292851989503</v>
+        <v>0.3930080680151773</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3360</v>
@@ -5629,19 +5629,19 @@
         <v>2627681</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2550499</v>
+        <v>2549595</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2706868</v>
+        <v>2705555</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3617679223619268</v>
+        <v>0.3617679223619267</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3511417138325709</v>
+        <v>0.3510172983043317</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.372670042852864</v>
+        <v>0.372489191071504</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2318192</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2258465</v>
+        <v>2255003</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2378866</v>
+        <v>2381575</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6561980531109008</v>
+        <v>0.6561980531109007</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6392916697871216</v>
+        <v>0.6383117163719453</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6733728373160744</v>
+        <v>0.6741396915483043</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3282</v>
@@ -5679,19 +5679,19 @@
         <v>2317572</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2260312</v>
+        <v>2264494</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2371806</v>
+        <v>2368813</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6212192361531814</v>
+        <v>0.6212192361531813</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6058707148010496</v>
+        <v>0.6069919319848226</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6357566221422354</v>
+        <v>0.6349541661659661</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5372</v>
@@ -5700,19 +5700,19 @@
         <v>4635764</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4556577</v>
+        <v>4557890</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4712946</v>
+        <v>4713850</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6382320776380734</v>
+        <v>0.6382320776380732</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6273299571471361</v>
+        <v>0.6275108089284961</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6488582861674296</v>
+        <v>0.6489827016956685</v>
       </c>
     </row>
     <row r="18">
